--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/group.xlsx
@@ -647,6 +647,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -654,9 +657,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -963,7 +963,7 @@
   <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -992,19 +992,19 @@
       <c r="A2" s="2">
         <v>4030000211</v>
       </c>
-      <c r="B2" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C2" s="3">
         <v>4030010002</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1012,19 +1012,19 @@
       <c r="A3" s="2">
         <v>4030000245</v>
       </c>
-      <c r="B3" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C3" s="3">
         <v>4030010003</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
       <c r="A4" s="2">
         <v>4030000228</v>
       </c>
-      <c r="B4" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C4" s="3">
         <v>4030010004</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1052,19 +1052,19 @@
       <c r="A5" s="2">
         <v>4030000244</v>
       </c>
-      <c r="B5" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C5" s="3">
         <v>4030010005</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1072,19 +1072,19 @@
       <c r="A6" s="2">
         <v>4030000007</v>
       </c>
-      <c r="B6" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C6" s="3">
         <v>4030010008</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1092,19 +1092,19 @@
       <c r="A7" s="2">
         <v>4030000186</v>
       </c>
-      <c r="B7" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C7" s="3">
         <v>4030010013</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1112,19 +1112,19 @@
       <c r="A8" s="2">
         <v>4030000192</v>
       </c>
-      <c r="B8" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C8" s="3">
         <v>4030010014</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1132,19 +1132,19 @@
       <c r="A9" s="2">
         <v>4030000014</v>
       </c>
-      <c r="B9" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C9" s="3">
         <v>4030010015</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1152,19 +1152,19 @@
       <c r="A10" s="2">
         <v>4030000185</v>
       </c>
-      <c r="B10" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C10" s="3">
         <v>4030010016</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1172,19 +1172,19 @@
       <c r="A11" s="2">
         <v>4030000229</v>
       </c>
-      <c r="B11" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C11" s="3">
         <v>4030010018</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1192,19 +1192,19 @@
       <c r="A12" s="2">
         <v>4030000212</v>
       </c>
-      <c r="B12" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C12" s="3">
         <v>4030010020</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1212,19 +1212,19 @@
       <c r="A13" s="2">
         <v>4030000231</v>
       </c>
-      <c r="B13" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C13" s="3">
         <v>4030010021</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1232,19 +1232,19 @@
       <c r="A14" s="2">
         <v>4030000189</v>
       </c>
-      <c r="B14" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C14" s="3">
         <v>4030010022</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1252,19 +1252,19 @@
       <c r="A15" s="2">
         <v>4030000322</v>
       </c>
-      <c r="B15" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C15" s="3">
         <v>4030010029</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1272,19 +1272,19 @@
       <c r="A16" s="2">
         <v>4030000340</v>
       </c>
-      <c r="B16" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C16" s="3">
         <v>4030010031</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1292,19 +1292,19 @@
       <c r="A17" s="2">
         <v>4030000028</v>
       </c>
-      <c r="B17" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C17" s="3">
         <v>4030010033</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1312,19 +1312,19 @@
       <c r="A18" s="2">
         <v>4030000116</v>
       </c>
-      <c r="B18" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C18" s="3">
         <v>4030010034</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1332,19 +1332,19 @@
       <c r="A19" s="2">
         <v>4030000117</v>
       </c>
-      <c r="B19" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C19" s="3">
         <v>4030010035</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1352,19 +1352,19 @@
       <c r="A20" s="2">
         <v>4030000118</v>
       </c>
-      <c r="B20" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C20" s="3">
         <v>4030010036</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1372,19 +1372,19 @@
       <c r="A21" s="2">
         <v>4030000119</v>
       </c>
-      <c r="B21" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C21" s="3">
         <v>4030010037</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1392,19 +1392,19 @@
       <c r="A22" s="2">
         <v>4030000121</v>
       </c>
-      <c r="B22" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C22" s="3">
         <v>4030010038</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1412,19 +1412,19 @@
       <c r="A23" s="2">
         <v>4030000133</v>
       </c>
-      <c r="B23" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C23" s="3">
         <v>4030010039</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1432,19 +1432,19 @@
       <c r="A24" s="2">
         <v>4030000120</v>
       </c>
-      <c r="B24" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C24" s="3">
         <v>4030010042</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1452,19 +1452,19 @@
       <c r="A25" s="2">
         <v>4030000218</v>
       </c>
-      <c r="B25" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C25" s="3">
         <v>4030010043</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1472,19 +1472,19 @@
       <c r="A26" s="2">
         <v>4030000109</v>
       </c>
-      <c r="B26" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C26" s="3">
         <v>4030010045</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1492,19 +1492,19 @@
       <c r="A27" s="2">
         <v>4030000127</v>
       </c>
-      <c r="B27" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C27" s="3">
         <v>4030010046</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       <c r="A28" s="2">
         <v>4030000107</v>
       </c>
-      <c r="B28" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C28" s="3">
         <v>4030010049</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1532,19 +1532,19 @@
       <c r="A29" s="2">
         <v>4030000132</v>
       </c>
-      <c r="B29" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C29" s="3">
         <v>4030010050</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1552,19 +1552,19 @@
       <c r="A30" s="2">
         <v>4030000110</v>
       </c>
-      <c r="B30" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C30" s="3">
         <v>4030010051</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1572,19 +1572,19 @@
       <c r="A31" s="2">
         <v>4030000102</v>
       </c>
-      <c r="B31" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C31" s="3">
         <v>4030010052</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1592,19 +1592,19 @@
       <c r="A32" s="2">
         <v>4030000033</v>
       </c>
-      <c r="B32" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C32" s="3">
         <v>4030010053</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1612,19 +1612,19 @@
       <c r="A33" s="2">
         <v>4030000034</v>
       </c>
-      <c r="B33" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C33" s="3">
         <v>4030010054</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1632,19 +1632,19 @@
       <c r="A34" s="2">
         <v>4030000125</v>
       </c>
-      <c r="B34" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C34" s="3">
         <v>4030010055</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1652,19 +1652,19 @@
       <c r="A35" s="2">
         <v>4030000254</v>
       </c>
-      <c r="B35" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C35" s="3">
         <v>4030010056</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1672,19 +1672,19 @@
       <c r="A36" s="2">
         <v>4030000126</v>
       </c>
-      <c r="B36" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C36" s="3">
         <v>4030010057</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1692,19 +1692,19 @@
       <c r="A37" s="2">
         <v>4030000105</v>
       </c>
-      <c r="B37" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C37" s="3">
         <v>4030010058</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1712,19 +1712,19 @@
       <c r="A38" s="2">
         <v>4030000036</v>
       </c>
-      <c r="B38" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C38" s="3">
         <v>4030010061</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       <c r="A39" s="2">
         <v>4030000037</v>
       </c>
-      <c r="B39" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C39" s="3">
         <v>4030010062</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1752,19 +1752,19 @@
       <c r="A40" s="2">
         <v>4030000038</v>
       </c>
-      <c r="B40" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C40" s="3">
         <v>4030010063</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1772,19 +1772,19 @@
       <c r="A41" s="2">
         <v>4030000106</v>
       </c>
-      <c r="B41" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C41" s="3">
         <v>4030010064</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1792,19 +1792,19 @@
       <c r="A42" s="2">
         <v>4030000128</v>
       </c>
-      <c r="B42" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C42" s="3">
         <v>4030010065</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1812,19 +1812,19 @@
       <c r="A43" s="2">
         <v>4030000135</v>
       </c>
-      <c r="B43" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B43" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C43" s="3">
         <v>4030010066</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1832,19 +1832,19 @@
       <c r="A44" s="2">
         <v>4030000039</v>
       </c>
-      <c r="B44" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C44" s="3">
         <v>4030010067</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1852,19 +1852,19 @@
       <c r="A45" s="2">
         <v>4030000040</v>
       </c>
-      <c r="B45" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C45" s="3">
         <v>4030010069</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1872,19 +1872,19 @@
       <c r="A46" s="2">
         <v>4030000041</v>
       </c>
-      <c r="B46" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C46" s="3">
         <v>4030010070</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1892,19 +1892,19 @@
       <c r="A47" s="2">
         <v>4030000276</v>
       </c>
-      <c r="B47" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C47" s="3">
         <v>4030010072</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1912,19 +1912,19 @@
       <c r="A48" s="2">
         <v>4030000043</v>
       </c>
-      <c r="B48" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C48" s="3">
         <v>4030010073</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1932,19 +1932,19 @@
       <c r="A49" s="2">
         <v>4030000044</v>
       </c>
-      <c r="B49" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C49" s="3">
         <v>4030010074</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1952,19 +1952,19 @@
       <c r="A50" s="2">
         <v>4030000227</v>
       </c>
-      <c r="B50" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C50" s="3">
         <v>4030010075</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1972,19 +1972,19 @@
       <c r="A51" s="2">
         <v>4030000138</v>
       </c>
-      <c r="B51" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C51" s="3">
         <v>4030010076</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1992,19 +1992,19 @@
       <c r="A52" s="2">
         <v>4030000139</v>
       </c>
-      <c r="B52" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C52" s="3">
         <v>4030010077</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2012,19 +2012,19 @@
       <c r="A53" s="2">
         <v>4030000140</v>
       </c>
-      <c r="B53" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C53" s="3">
         <v>4030010078</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2032,19 +2032,19 @@
       <c r="A54" s="2">
         <v>4030000361</v>
       </c>
-      <c r="B54" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C54" s="3">
         <v>4030010080</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2052,19 +2052,19 @@
       <c r="A55" s="2">
         <v>4030000162</v>
       </c>
-      <c r="B55" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C55" s="3">
         <v>4030010082</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2072,19 +2072,19 @@
       <c r="A56" s="2">
         <v>4030000049</v>
       </c>
-      <c r="B56" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C56" s="3">
         <v>4030010083</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2092,19 +2092,19 @@
       <c r="A57" s="2">
         <v>4030000174</v>
       </c>
-      <c r="B57" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C57" s="3">
         <v>4030010086</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2112,19 +2112,19 @@
       <c r="A58" s="2">
         <v>4030000175</v>
       </c>
-      <c r="B58" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C58" s="3">
         <v>4030010087</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2132,19 +2132,19 @@
       <c r="A59" s="2">
         <v>4030000176</v>
       </c>
-      <c r="B59" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C59" s="3">
         <v>4030010088</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2152,19 +2152,19 @@
       <c r="A60" s="2">
         <v>4030000177</v>
       </c>
-      <c r="B60" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C60" s="3">
         <v>4030010090</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2172,19 +2172,19 @@
       <c r="A61" s="2">
         <v>4030000178</v>
       </c>
-      <c r="B61" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C61" s="3">
         <v>4030010091</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2192,19 +2192,19 @@
       <c r="A62" s="2">
         <v>4030000163</v>
       </c>
-      <c r="B62" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C62" s="3">
         <v>4030010092</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2212,19 +2212,19 @@
       <c r="A63" s="2">
         <v>4030000180</v>
       </c>
-      <c r="B63" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C63" s="3">
         <v>4030010094</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2232,19 +2232,19 @@
       <c r="A64" s="2">
         <v>4030000181</v>
       </c>
-      <c r="B64" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C64" s="3">
         <v>4030010095</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2252,19 +2252,19 @@
       <c r="A65" s="2">
         <v>4030000182</v>
       </c>
-      <c r="B65" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C65" s="3">
         <v>4030010096</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2272,19 +2272,19 @@
       <c r="A66" s="2">
         <v>4030000183</v>
       </c>
-      <c r="B66" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="B66" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C66" s="3">
         <v>4030010097</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2292,19 +2292,19 @@
       <c r="A67" s="2">
         <v>4030000064</v>
       </c>
-      <c r="B67" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C67" s="4">
+      <c r="B67" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C67" s="3">
         <v>4030010098</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2312,19 +2312,19 @@
       <c r="A68" s="2">
         <v>4030000065</v>
       </c>
-      <c r="B68" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C68" s="3">
         <v>4030010099</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2332,19 +2332,19 @@
       <c r="A69" s="2">
         <v>4030000209</v>
       </c>
-      <c r="B69" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C69" s="3">
         <v>4030010100</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2352,19 +2352,19 @@
       <c r="A70" s="2">
         <v>4030000208</v>
       </c>
-      <c r="B70" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C70" s="4">
+      <c r="B70" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C70" s="3">
         <v>4030010101</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2372,19 +2372,19 @@
       <c r="A71" s="2">
         <v>4030000069</v>
       </c>
-      <c r="B71" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="B71" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C71" s="3">
         <v>4030010103</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2392,19 +2392,19 @@
       <c r="A72" s="2">
         <v>4030000146</v>
       </c>
-      <c r="B72" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="B72" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C72" s="3">
         <v>4030010104</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2412,19 +2412,19 @@
       <c r="A73" s="2">
         <v>4030000230</v>
       </c>
-      <c r="B73" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="B73" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C73" s="3">
         <v>4030010105</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2432,19 +2432,19 @@
       <c r="A74" s="2">
         <v>4030000207</v>
       </c>
-      <c r="B74" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="B74" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C74" s="3">
         <v>4030010106</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2452,19 +2452,19 @@
       <c r="A75" s="2">
         <v>4030000142</v>
       </c>
-      <c r="B75" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B75" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C75" s="3">
         <v>4030010107</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2472,19 +2472,19 @@
       <c r="A76" s="2">
         <v>4030000143</v>
       </c>
-      <c r="B76" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="B76" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C76" s="3">
         <v>4030010108</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2492,19 +2492,19 @@
       <c r="A77" s="2">
         <v>4030000145</v>
       </c>
-      <c r="B77" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C77" s="4">
+      <c r="B77" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C77" s="3">
         <v>4030010109</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2512,19 +2512,19 @@
       <c r="A78" s="2">
         <v>4030000144</v>
       </c>
-      <c r="B78" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C78" s="3">
         <v>4030010110</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2532,19 +2532,19 @@
       <c r="A79" s="2">
         <v>4030000141</v>
       </c>
-      <c r="B79" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C79" s="4">
+      <c r="B79" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C79" s="3">
         <v>4030010111</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2552,19 +2552,19 @@
       <c r="A80" s="2">
         <v>4030000072</v>
       </c>
-      <c r="B80" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B80" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C80" s="3">
         <v>4030010112</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2572,19 +2572,19 @@
       <c r="A81" s="2">
         <v>4030000073</v>
       </c>
-      <c r="B81" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="B81" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C81" s="3">
         <v>4030010113</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2592,19 +2592,19 @@
       <c r="A82" s="2">
         <v>4030000074</v>
       </c>
-      <c r="B82" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C82" s="4">
+      <c r="B82" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C82" s="3">
         <v>4030010114</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2612,19 +2612,19 @@
       <c r="A83" s="2">
         <v>4030000159</v>
       </c>
-      <c r="B83" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="B83" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C83" s="3">
         <v>4030010116</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2632,19 +2632,19 @@
       <c r="A84" s="2">
         <v>4030000168</v>
       </c>
-      <c r="B84" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="B84" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C84" s="3">
         <v>4030010117</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2652,19 +2652,19 @@
       <c r="A85" s="2">
         <v>4030000078</v>
       </c>
-      <c r="B85" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C85" s="4">
+      <c r="B85" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C85" s="3">
         <v>4030010118</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2672,19 +2672,19 @@
       <c r="A86" s="2">
         <v>4030000366</v>
       </c>
-      <c r="B86" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="B86" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C86" s="3">
         <v>4030010119</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2692,19 +2692,19 @@
       <c r="A87" s="2">
         <v>4030000170</v>
       </c>
-      <c r="B87" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B87" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C87" s="3">
         <v>4030010120</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2712,19 +2712,19 @@
       <c r="A88" s="2">
         <v>4030000171</v>
       </c>
-      <c r="B88" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="B88" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C88" s="3">
         <v>4030010121</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2732,19 +2732,19 @@
       <c r="A89" s="2">
         <v>4030000172</v>
       </c>
-      <c r="B89" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="B89" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C89" s="3">
         <v>4030010122</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2752,19 +2752,19 @@
       <c r="A90" s="2">
         <v>4030000362</v>
       </c>
-      <c r="B90" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B90" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C90" s="3">
         <v>4030010123</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2772,19 +2772,19 @@
       <c r="A91" s="2">
         <v>4030000161</v>
       </c>
-      <c r="B91" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C91" s="4">
+      <c r="B91" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C91" s="3">
         <v>4030010124</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2792,19 +2792,19 @@
       <c r="A92" s="2">
         <v>4030000243</v>
       </c>
-      <c r="B92" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C92" s="3">
         <v>4030010125</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2812,19 +2812,19 @@
       <c r="A93" s="2">
         <v>4030000246</v>
       </c>
-      <c r="B93" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="B93" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C93" s="3">
         <v>4030010126</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2832,19 +2832,19 @@
       <c r="A94" s="2">
         <v>4030000087</v>
       </c>
-      <c r="B94" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C94" s="4">
+      <c r="B94" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C94" s="3">
         <v>4030010127</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2852,19 +2852,19 @@
       <c r="A95" s="2">
         <v>4030000088</v>
       </c>
-      <c r="B95" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C95" s="4">
+      <c r="B95" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C95" s="3">
         <v>4030010128</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2872,19 +2872,19 @@
       <c r="A96" s="2">
         <v>4030000090</v>
       </c>
-      <c r="B96" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C96" s="4">
+      <c r="B96" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C96" s="3">
         <v>4030010130</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2892,19 +2892,19 @@
       <c r="A97" s="2">
         <v>4030000242</v>
       </c>
-      <c r="B97" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C97" s="4">
+      <c r="B97" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C97" s="3">
         <v>4030010131</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2912,19 +2912,19 @@
       <c r="A98" s="2">
         <v>4030000241</v>
       </c>
-      <c r="B98" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C98" s="4">
+      <c r="B98" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C98" s="3">
         <v>4030010132</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2932,19 +2932,19 @@
       <c r="A99" s="2">
         <v>4030000233</v>
       </c>
-      <c r="B99" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="B99" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C99" s="3">
         <v>4030010133</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2952,19 +2952,19 @@
       <c r="A100" s="2">
         <v>4030000094</v>
       </c>
-      <c r="B100" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="B100" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C100" s="3">
         <v>4030010134</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2972,19 +2972,19 @@
       <c r="A101" s="2">
         <v>4030000232</v>
       </c>
-      <c r="B101" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C101" s="4">
+      <c r="B101" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C101" s="3">
         <v>4030010135</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2992,19 +2992,19 @@
       <c r="A102" s="2">
         <v>4030000098</v>
       </c>
-      <c r="B102" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C102" s="4">
+      <c r="B102" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C102" s="3">
         <v>4030010138</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3012,19 +3012,19 @@
       <c r="A103" s="2">
         <v>4030000099</v>
       </c>
-      <c r="B103" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="B103" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C103" s="3">
         <v>4030010139</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3032,19 +3032,19 @@
       <c r="A104" s="2">
         <v>4030000100</v>
       </c>
-      <c r="B104" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="B104" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C104" s="3">
         <v>4030010140</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3052,19 +3052,19 @@
       <c r="A105" s="2">
         <v>4030000101</v>
       </c>
-      <c r="B105" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C105" s="4">
+      <c r="B105" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C105" s="3">
         <v>4030010141</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3072,19 +3072,19 @@
       <c r="A106" s="2">
         <v>4030000111</v>
       </c>
-      <c r="B106" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C106" s="4">
+      <c r="B106" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C106" s="3">
         <v>4030010142</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>4030000003</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3092,19 +3092,19 @@
       <c r="A107" s="2">
         <v>4030000112</v>
       </c>
-      <c r="B107" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C107" s="4">
+      <c r="B107" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C107" s="3">
         <v>4030010143</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>4030000003</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3112,19 +3112,19 @@
       <c r="A108" s="2">
         <v>4030000113</v>
       </c>
-      <c r="B108" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C108" s="4">
+      <c r="B108" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C108" s="3">
         <v>4030010144</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>4030000003</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3132,19 +3132,19 @@
       <c r="A109" s="2">
         <v>4030000115</v>
       </c>
-      <c r="B109" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C109" s="4">
+      <c r="B109" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C109" s="3">
         <v>4030010146</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>4030000003</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3152,19 +3152,19 @@
       <c r="A110" s="2">
         <v>4030000134</v>
       </c>
-      <c r="B110" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C110" s="4">
+      <c r="B110" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C110" s="3">
         <v>4030010147</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3172,19 +3172,19 @@
       <c r="A111" s="2">
         <v>4030000147</v>
       </c>
-      <c r="B111" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C111" s="4">
+      <c r="B111" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C111" s="3">
         <v>4030010148</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3192,19 +3192,19 @@
       <c r="A112" s="2">
         <v>4030000148</v>
       </c>
-      <c r="B112" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C112" s="4">
+      <c r="B112" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C112" s="3">
         <v>4030010149</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>4030000003</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3212,19 +3212,19 @@
       <c r="A113" s="2">
         <v>4030000149</v>
       </c>
-      <c r="B113" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C113" s="4">
+      <c r="B113" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C113" s="3">
         <v>4030010150</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3232,16 +3232,16 @@
       <c r="A114" s="2">
         <v>4030000150</v>
       </c>
-      <c r="B114" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C114" s="4">
+      <c r="B114" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C114" s="3">
         <v>4030010151</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3249,19 +3249,19 @@
       <c r="A115" s="2">
         <v>4030000151</v>
       </c>
-      <c r="B115" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C115" s="4">
+      <c r="B115" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C115" s="3">
         <v>4030010152</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3269,19 +3269,19 @@
       <c r="A116" s="2">
         <v>4030000262</v>
       </c>
-      <c r="B116" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C116" s="4">
+      <c r="B116" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C116" s="3">
         <v>4030010154</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3289,19 +3289,19 @@
       <c r="A117" s="2">
         <v>4030000152</v>
       </c>
-      <c r="B117" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C117" s="4">
+      <c r="B117" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C117" s="3">
         <v>4030010155</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3309,19 +3309,19 @@
       <c r="A118" s="2">
         <v>4030000253</v>
       </c>
-      <c r="B118" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C118" s="4">
+      <c r="B118" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C118" s="3">
         <v>4030010157</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3329,19 +3329,19 @@
       <c r="A119" s="2">
         <v>4030000155</v>
       </c>
-      <c r="B119" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C119" s="4">
+      <c r="B119" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C119" s="3">
         <v>4030010158</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3349,19 +3349,19 @@
       <c r="A120" s="2">
         <v>4030000156</v>
       </c>
-      <c r="B120" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C120" s="4">
+      <c r="B120" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C120" s="3">
         <v>4030010159</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3369,19 +3369,19 @@
       <c r="A121" s="2">
         <v>4030000157</v>
       </c>
-      <c r="B121" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C121" s="4">
+      <c r="B121" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C121" s="3">
         <v>4030010160</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3389,19 +3389,19 @@
       <c r="A122" s="2">
         <v>4030000164</v>
       </c>
-      <c r="B122" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C122" s="4">
+      <c r="B122" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C122" s="3">
         <v>4030010161</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3409,19 +3409,19 @@
       <c r="A123" s="2">
         <v>4030000167</v>
       </c>
-      <c r="B123" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C123" s="4">
+      <c r="B123" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C123" s="3">
         <v>4030010164</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3429,19 +3429,19 @@
       <c r="A124" s="2">
         <v>4030000263</v>
       </c>
-      <c r="B124" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C124" s="4">
+      <c r="B124" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C124" s="3">
         <v>4030010165</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3449,19 +3449,19 @@
       <c r="A125" s="2">
         <v>4030000269</v>
       </c>
-      <c r="B125" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C125" s="4">
+      <c r="B125" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C125" s="3">
         <v>4030010168</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3469,19 +3469,19 @@
       <c r="A126" s="2">
         <v>4030000271</v>
       </c>
-      <c r="B126" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C126" s="4">
+      <c r="B126" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C126" s="3">
         <v>4030010169</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3489,19 +3489,19 @@
       <c r="A127" s="2">
         <v>4030000275</v>
       </c>
-      <c r="B127" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C127" s="4">
+      <c r="B127" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C127" s="3">
         <v>4030010171</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3509,19 +3509,19 @@
       <c r="A128" s="2">
         <v>4030000278</v>
       </c>
-      <c r="B128" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C128" s="4">
+      <c r="B128" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C128" s="3">
         <v>4030010172</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3529,19 +3529,19 @@
       <c r="A129" s="2">
         <v>4030000286</v>
       </c>
-      <c r="B129" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C129" s="4">
+      <c r="B129" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C129" s="3">
         <v>4030010176</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3549,19 +3549,19 @@
       <c r="A130" s="2">
         <v>4030000287</v>
       </c>
-      <c r="B130" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C130" s="4">
+      <c r="B130" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C130" s="3">
         <v>4030010177</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3569,19 +3569,19 @@
       <c r="A131" s="2">
         <v>4030000288</v>
       </c>
-      <c r="B131" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C131" s="4">
+      <c r="B131" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C131" s="3">
         <v>4030010178</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3589,19 +3589,19 @@
       <c r="A132" s="2">
         <v>4030000290</v>
       </c>
-      <c r="B132" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C132" s="4">
+      <c r="B132" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C132" s="3">
         <v>4030010180</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3609,19 +3609,19 @@
       <c r="A133" s="2">
         <v>4030000291</v>
       </c>
-      <c r="B133" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C133" s="4">
+      <c r="B133" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C133" s="3">
         <v>4030010181</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3629,19 +3629,19 @@
       <c r="A134" s="2">
         <v>4030000292</v>
       </c>
-      <c r="B134" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C134" s="4">
+      <c r="B134" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C134" s="3">
         <v>4030010182</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3649,19 +3649,19 @@
       <c r="A135" s="2">
         <v>4030000293</v>
       </c>
-      <c r="B135" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C135" s="4">
+      <c r="B135" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C135" s="3">
         <v>4030010183</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3669,19 +3669,19 @@
       <c r="A136" s="2">
         <v>4030000311</v>
       </c>
-      <c r="B136" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C136" s="4">
+      <c r="B136" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C136" s="3">
         <v>4030010185</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3689,19 +3689,19 @@
       <c r="A137" s="2">
         <v>4030000297</v>
       </c>
-      <c r="B137" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C137" s="4">
+      <c r="B137" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C137" s="3">
         <v>4030010187</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3709,19 +3709,19 @@
       <c r="A138" s="2">
         <v>4030000299</v>
       </c>
-      <c r="B138" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C138" s="4">
+      <c r="B138" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C138" s="3">
         <v>4030010188</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3729,19 +3729,19 @@
       <c r="A139" s="2">
         <v>4030000300</v>
       </c>
-      <c r="B139" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C139" s="4">
+      <c r="B139" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C139" s="3">
         <v>4030010189</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3749,19 +3749,19 @@
       <c r="A140" s="2">
         <v>4030000302</v>
       </c>
-      <c r="B140" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C140" s="4">
+      <c r="B140" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C140" s="3">
         <v>4030010191</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3769,19 +3769,19 @@
       <c r="A141" s="2">
         <v>4030000305</v>
       </c>
-      <c r="B141" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C141" s="4">
+      <c r="B141" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C141" s="3">
         <v>4030010194</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3789,19 +3789,19 @@
       <c r="A142" s="2">
         <v>4030000307</v>
       </c>
-      <c r="B142" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C142" s="4">
+      <c r="B142" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C142" s="3">
         <v>4030010196</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="5">
         <v>4030000013</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3809,19 +3809,19 @@
       <c r="A143" s="2">
         <v>4030000309</v>
       </c>
-      <c r="B143" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C143" s="4">
+      <c r="B143" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C143" s="3">
         <v>4030010197</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3829,19 +3829,19 @@
       <c r="A144" s="2">
         <v>4030000314</v>
       </c>
-      <c r="B144" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C144" s="4">
+      <c r="B144" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C144" s="3">
         <v>4030010198</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3849,19 +3849,19 @@
       <c r="A145" s="2">
         <v>4030000369</v>
       </c>
-      <c r="B145" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C145" s="4">
+      <c r="B145" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C145" s="3">
         <v>4030010199</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3869,19 +3869,19 @@
       <c r="A146" s="2">
         <v>4030000316</v>
       </c>
-      <c r="B146" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C146" s="4">
+      <c r="B146" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C146" s="3">
         <v>4030010200</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3889,19 +3889,19 @@
       <c r="A147" s="2">
         <v>4030000317</v>
       </c>
-      <c r="B147" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C147" s="4">
+      <c r="B147" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C147" s="3">
         <v>4030010201</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3909,19 +3909,19 @@
       <c r="A148" s="2">
         <v>4030000318</v>
       </c>
-      <c r="B148" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C148" s="4">
+      <c r="B148" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C148" s="3">
         <v>4030010202</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3929,19 +3929,19 @@
       <c r="A149" s="2">
         <v>4030000319</v>
       </c>
-      <c r="B149" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C149" s="4">
+      <c r="B149" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C149" s="3">
         <v>4030010203</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3949,19 +3949,19 @@
       <c r="A150" s="2">
         <v>4030000321</v>
       </c>
-      <c r="B150" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C150" s="4">
+      <c r="B150" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C150" s="3">
         <v>4030010205</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3969,19 +3969,19 @@
       <c r="A151" s="2">
         <v>4030000324</v>
       </c>
-      <c r="B151" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C151" s="4">
+      <c r="B151" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C151" s="3">
         <v>4030010206</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3989,19 +3989,19 @@
       <c r="A152" s="2">
         <v>4030000326</v>
       </c>
-      <c r="B152" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C152" s="4">
+      <c r="B152" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C152" s="3">
         <v>4030010208</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4009,19 +4009,19 @@
       <c r="A153" s="2">
         <v>4030000327</v>
       </c>
-      <c r="B153" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C153" s="4">
+      <c r="B153" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C153" s="3">
         <v>4030010209</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4029,19 +4029,19 @@
       <c r="A154" s="2">
         <v>4030000328</v>
       </c>
-      <c r="B154" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C154" s="4">
+      <c r="B154" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C154" s="3">
         <v>4030010210</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F154" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4049,19 +4049,19 @@
       <c r="A155" s="2">
         <v>4030000331</v>
       </c>
-      <c r="B155" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C155" s="4">
+      <c r="B155" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C155" s="3">
         <v>4030010212</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4069,19 +4069,19 @@
       <c r="A156" s="2">
         <v>4030000334</v>
       </c>
-      <c r="B156" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C156" s="4">
+      <c r="B156" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C156" s="3">
         <v>4030010215</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4089,19 +4089,19 @@
       <c r="A157" s="2">
         <v>4030000337</v>
       </c>
-      <c r="B157" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C157" s="4">
+      <c r="B157" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C157" s="3">
         <v>4030010216</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4109,19 +4109,19 @@
       <c r="A158" s="2">
         <v>4030000341</v>
       </c>
-      <c r="B158" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C158" s="4">
+      <c r="B158" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C158" s="3">
         <v>4030010218</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4129,19 +4129,19 @@
       <c r="A159" s="2">
         <v>4030000342</v>
       </c>
-      <c r="B159" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C159" s="4">
+      <c r="B159" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C159" s="3">
         <v>4030010219</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4149,19 +4149,19 @@
       <c r="A160" s="2">
         <v>4030000345</v>
       </c>
-      <c r="B160" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C160" s="4">
+      <c r="B160" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C160" s="3">
         <v>4030010222</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4169,19 +4169,19 @@
       <c r="A161" s="2">
         <v>4030000346</v>
       </c>
-      <c r="B161" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C161" s="4">
+      <c r="B161" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C161" s="3">
         <v>4030010223</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4189,19 +4189,19 @@
       <c r="A162" s="2">
         <v>4030000349</v>
       </c>
-      <c r="B162" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C162" s="4">
+      <c r="B162" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C162" s="3">
         <v>4030010225</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4209,19 +4209,19 @@
       <c r="A163" s="2">
         <v>4030000350</v>
       </c>
-      <c r="B163" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C163" s="4">
+      <c r="B163" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C163" s="3">
         <v>4030010226</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>4030000007</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4229,19 +4229,19 @@
       <c r="A164" s="2">
         <v>4030000370</v>
       </c>
-      <c r="B164" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C164" s="4">
+      <c r="B164" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C164" s="3">
         <v>4030010227</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4249,19 +4249,19 @@
       <c r="A165" s="2">
         <v>4030000353</v>
       </c>
-      <c r="B165" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C165" s="4">
+      <c r="B165" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C165" s="3">
         <v>4030010228</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4269,19 +4269,19 @@
       <c r="A166" s="2">
         <v>4030000355</v>
       </c>
-      <c r="B166" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C166" s="4">
+      <c r="B166" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C166" s="3">
         <v>4030010230</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4289,19 +4289,19 @@
       <c r="A167" s="2">
         <v>4030000356</v>
       </c>
-      <c r="B167" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C167" s="4">
+      <c r="B167" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C167" s="3">
         <v>4030010231</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4309,19 +4309,19 @@
       <c r="A168" s="2">
         <v>4030000357</v>
       </c>
-      <c r="B168" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C168" s="4">
+      <c r="B168" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C168" s="3">
         <v>4030010232</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4329,19 +4329,19 @@
       <c r="A169" s="2">
         <v>4030000374</v>
       </c>
-      <c r="B169" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C169" s="4">
+      <c r="B169" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C169" s="3">
         <v>4030010233</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="5">
         <v>4030000014</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" s="6" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4349,19 +4349,19 @@
       <c r="A170" s="2">
         <v>4030000358</v>
       </c>
-      <c r="B170" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C170" s="4">
+      <c r="B170" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C170" s="3">
         <v>4030010234</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4369,19 +4369,19 @@
       <c r="A171" s="2">
         <v>4030000359</v>
       </c>
-      <c r="B171" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C171" s="4">
+      <c r="B171" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C171" s="3">
         <v>4030010235</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="F171" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4389,19 +4389,19 @@
       <c r="A172" s="2">
         <v>4030000363</v>
       </c>
-      <c r="B172" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C172" s="4">
+      <c r="B172" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C172" s="3">
         <v>4030010237</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4409,19 +4409,19 @@
       <c r="A173" s="2">
         <v>4030000365</v>
       </c>
-      <c r="B173" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C173" s="4">
+      <c r="B173" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C173" s="3">
         <v>4030010239</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4429,19 +4429,19 @@
       <c r="A174" s="2">
         <v>4030000367</v>
       </c>
-      <c r="B174" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C174" s="4">
+      <c r="B174" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C174" s="3">
         <v>4030010240</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F174" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4449,19 +4449,19 @@
       <c r="A175" s="2">
         <v>4030000368</v>
       </c>
-      <c r="B175" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C175" s="4">
+      <c r="B175" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C175" s="3">
         <v>4030010241</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F175" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4469,19 +4469,19 @@
       <c r="A176" s="2">
         <v>4030000375</v>
       </c>
-      <c r="B176" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C176" s="4">
+      <c r="B176" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C176" s="3">
         <v>4030010242</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4489,19 +4489,19 @@
       <c r="A177" s="2">
         <v>4030000372</v>
       </c>
-      <c r="B177" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C177" s="4">
+      <c r="B177" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C177" s="3">
         <v>4030020008</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4509,19 +4509,19 @@
       <c r="A178" s="2">
         <v>4030000187</v>
       </c>
-      <c r="B178" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C178" s="4">
+      <c r="B178" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C178" s="3">
         <v>4030020013</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F178" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4529,19 +4529,19 @@
       <c r="A179" s="2">
         <v>4030000193</v>
       </c>
-      <c r="B179" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C179" s="4">
+      <c r="B179" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C179" s="3">
         <v>4030020014</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4549,19 +4549,19 @@
       <c r="A180" s="2">
         <v>4030000323</v>
       </c>
-      <c r="B180" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C180" s="4">
+      <c r="B180" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C180" s="3">
         <v>4030020015</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="5">
         <v>4030000008</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4569,19 +4569,19 @@
       <c r="A181" s="2">
         <v>4030000188</v>
       </c>
-      <c r="B181" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C181" s="4">
+      <c r="B181" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C181" s="3">
         <v>4030020016</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F181" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4589,19 +4589,19 @@
       <c r="A182" s="2">
         <v>4030000216</v>
       </c>
-      <c r="B182" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C182" s="4">
+      <c r="B182" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C182" s="3">
         <v>4030020039</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4609,19 +4609,19 @@
       <c r="A183" s="2">
         <v>4030000219</v>
       </c>
-      <c r="B183" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C183" s="4">
+      <c r="B183" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C183" s="3">
         <v>4030020043</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4629,19 +4629,19 @@
       <c r="A184" s="2">
         <v>4030000336</v>
       </c>
-      <c r="B184" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C184" s="4">
+      <c r="B184" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C184" s="3">
         <v>4030020054</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="5">
         <v>4030000002</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="F184" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4649,19 +4649,19 @@
       <c r="A185" s="2">
         <v>4030000257</v>
       </c>
-      <c r="B185" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C185" s="4">
+      <c r="B185" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C185" s="3">
         <v>4030020056</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E185" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4669,19 +4669,19 @@
       <c r="A186" s="2">
         <v>4030000196</v>
       </c>
-      <c r="B186" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C186" s="4">
+      <c r="B186" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C186" s="3">
         <v>4030020086</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4689,19 +4689,19 @@
       <c r="A187" s="2">
         <v>4030000201</v>
       </c>
-      <c r="B187" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C187" s="4">
+      <c r="B187" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C187" s="3">
         <v>4030020087</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F187" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4709,19 +4709,19 @@
       <c r="A188" s="2">
         <v>4030000194</v>
       </c>
-      <c r="B188" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C188" s="4">
+      <c r="B188" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C188" s="3">
         <v>4030020088</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4729,19 +4729,19 @@
       <c r="A189" s="2">
         <v>4030000210</v>
       </c>
-      <c r="B189" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C189" s="4">
+      <c r="B189" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C189" s="3">
         <v>4030020090</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F189" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4749,19 +4749,19 @@
       <c r="A190" s="2">
         <v>4030000199</v>
       </c>
-      <c r="B190" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C190" s="4">
+      <c r="B190" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C190" s="3">
         <v>4030020091</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F190" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4769,19 +4769,19 @@
       <c r="A191" s="2">
         <v>4030000198</v>
       </c>
-      <c r="B191" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C191" s="4">
+      <c r="B191" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C191" s="3">
         <v>4030020094</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F191" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4789,19 +4789,19 @@
       <c r="A192" s="2">
         <v>4030000191</v>
       </c>
-      <c r="B192" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C192" s="4">
+      <c r="B192" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C192" s="3">
         <v>4030020095</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4809,19 +4809,19 @@
       <c r="A193" s="2">
         <v>4030000197</v>
       </c>
-      <c r="B193" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C193" s="4">
+      <c r="B193" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C193" s="3">
         <v>4030020096</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F193" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4829,19 +4829,19 @@
       <c r="A194" s="2">
         <v>4030000195</v>
       </c>
-      <c r="B194" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C194" s="4">
+      <c r="B194" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C194" s="3">
         <v>4030020097</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4849,19 +4849,19 @@
       <c r="A195" s="2">
         <v>4030000213</v>
       </c>
-      <c r="B195" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C195" s="4">
+      <c r="B195" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C195" s="3">
         <v>4030020099</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4869,19 +4869,19 @@
       <c r="A196" s="2">
         <v>4030000205</v>
       </c>
-      <c r="B196" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C196" s="4">
+      <c r="B196" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C196" s="3">
         <v>4030020104</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="F196" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4889,19 +4889,19 @@
       <c r="A197" s="2">
         <v>4030000234</v>
       </c>
-      <c r="B197" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C197" s="4">
+      <c r="B197" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C197" s="3">
         <v>4030020107</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4909,19 +4909,19 @@
       <c r="A198" s="2">
         <v>4030000236</v>
       </c>
-      <c r="B198" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C198" s="4">
+      <c r="B198" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C198" s="3">
         <v>4030020111</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4929,19 +4929,19 @@
       <c r="A199" s="2">
         <v>4030000160</v>
       </c>
-      <c r="B199" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C199" s="4">
+      <c r="B199" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C199" s="3">
         <v>4030020118</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F199" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4949,19 +4949,19 @@
       <c r="A200" s="2">
         <v>4030000239</v>
       </c>
-      <c r="B200" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C200" s="4">
+      <c r="B200" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C200" s="3">
         <v>4030020122</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4969,19 +4969,19 @@
       <c r="A201" s="2">
         <v>4030000240</v>
       </c>
-      <c r="B201" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C201" s="4">
+      <c r="B201" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C201" s="3">
         <v>4030020128</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F201" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4989,19 +4989,19 @@
       <c r="A202" s="2">
         <v>4030000371</v>
       </c>
-      <c r="B202" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C202" s="4">
+      <c r="B202" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C202" s="3">
         <v>4030020132</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5009,19 +5009,19 @@
       <c r="A203" s="2">
         <v>4030000264</v>
       </c>
-      <c r="B203" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C203" s="4">
+      <c r="B203" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C203" s="3">
         <v>4030020165</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="5">
         <v>4030000011</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5029,19 +5029,19 @@
       <c r="A204" s="2">
         <v>4030000351</v>
       </c>
-      <c r="B204" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C204" s="4">
+      <c r="B204" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C204" s="3">
         <v>4030020171</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="5">
         <v>4030000009</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="F204" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5049,19 +5049,19 @@
       <c r="A205" s="2">
         <v>4030000279</v>
       </c>
-      <c r="B205" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C205" s="4">
+      <c r="B205" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C205" s="3">
         <v>4030020172</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="5">
         <v>4030000006</v>
       </c>
-      <c r="F205" s="7" t="s">
+      <c r="F205" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5069,19 +5069,19 @@
       <c r="A206" s="2">
         <v>4030000312</v>
       </c>
-      <c r="B206" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C206" s="4">
+      <c r="B206" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C206" s="3">
         <v>4030020185</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5089,19 +5089,19 @@
       <c r="A207" s="2">
         <v>4030000298</v>
       </c>
-      <c r="B207" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C207" s="4">
+      <c r="B207" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C207" s="3">
         <v>4030020187</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="5">
         <v>4030000001</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F207" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5109,19 +5109,19 @@
       <c r="A208" s="2">
         <v>4030000310</v>
       </c>
-      <c r="B208" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C208" s="4">
+      <c r="B208" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C208" s="3">
         <v>4030020197</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="5">
         <v>4030000012</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5129,19 +5129,19 @@
       <c r="A209" s="2">
         <v>4030000313</v>
       </c>
-      <c r="B209" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C209" s="4">
+      <c r="B209" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C209" s="3">
         <v>4030030185</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="5">
         <v>4030000005</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5149,16 +5149,16 @@
       <c r="A210" s="2">
         <v>4030000259</v>
       </c>
-      <c r="B210" s="3">
-        <v>4050000000</v>
-      </c>
-      <c r="C210" s="4">
+      <c r="B210" s="7">
+        <v>2060000000</v>
+      </c>
+      <c r="C210" s="3">
         <v>100000010565</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="5">
         <v>4030000001.0999999</v>
       </c>
     </row>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2060/group.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -486,13 +486,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -813,7 +810,7 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,16 +842,16 @@
       <c r="B2" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C2" s="4">
-        <v>305020101</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2">
+        <v>403110101</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>305020100</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -865,16 +862,16 @@
       <c r="B3" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C3" s="4">
-        <v>305020102</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3">
+        <v>403110102</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>305020100</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -885,16 +882,16 @@
       <c r="B4" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C4" s="4">
-        <v>305020103</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4">
+        <v>403110103</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>305020100</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -905,16 +902,16 @@
       <c r="B5" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C5" s="4">
-        <v>305020104</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5">
+        <v>403110104</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>305020100</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -925,16 +922,16 @@
       <c r="B6" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C6" s="4">
-        <v>305020105</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6">
+        <v>403110105</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>305020100</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -945,16 +942,16 @@
       <c r="B7" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C7" s="4">
-        <v>305020106</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7">
+        <v>403110106</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>305020100</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -965,16 +962,16 @@
       <c r="B8" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C8" s="4">
-        <v>305020107</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8">
+        <v>403110107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>305020100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -985,16 +982,16 @@
       <c r="B9" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C9" s="4">
-        <v>305020201</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9">
+        <v>403110201</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>305020200</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1005,16 +1002,16 @@
       <c r="B10" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C10" s="4">
-        <v>305020202</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10">
+        <v>403110202</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>305020200</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1025,16 +1022,16 @@
       <c r="B11" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C11" s="4">
-        <v>305020203</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11">
+        <v>403110203</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>305020200</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1045,16 +1042,16 @@
       <c r="B12" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C12" s="4">
-        <v>305020204</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12">
+        <v>403110204</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>305020200</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1065,16 +1062,16 @@
       <c r="B13" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C13" s="4">
-        <v>305020205</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13">
+        <v>403110205</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>305020200</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1085,16 +1082,16 @@
       <c r="B14" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C14" s="4">
-        <v>305020206</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14">
+        <v>403110206</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>305020200</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1105,16 +1102,16 @@
       <c r="B15" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C15" s="4">
-        <v>305020207</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15">
+        <v>403110207</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>305020200</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1125,16 +1122,16 @@
       <c r="B16" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C16" s="4">
-        <v>305020208</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16">
+        <v>403110208</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>305020200</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1145,16 +1142,16 @@
       <c r="B17" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C17" s="4">
-        <v>305020209</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17">
+        <v>403110209</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>305020200</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1165,16 +1162,16 @@
       <c r="B18" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C18" s="4">
-        <v>305020210</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18">
+        <v>403110210</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>305020200</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1185,16 +1182,16 @@
       <c r="B19" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C19" s="4">
-        <v>305020211</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19">
+        <v>403110211</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>305020200</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1205,16 +1202,16 @@
       <c r="B20" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C20" s="4">
-        <v>305020301</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20">
+        <v>403110301</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>305020300</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1225,16 +1222,16 @@
       <c r="B21" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C21" s="4">
-        <v>305020302</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21">
+        <v>403110302</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>305020300</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1245,16 +1242,16 @@
       <c r="B22" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C22" s="4">
-        <v>305020303</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22">
+        <v>403110303</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>305020300</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1265,16 +1262,16 @@
       <c r="B23" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C23" s="4">
-        <v>305020304</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23">
+        <v>403110304</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>305020300</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1285,16 +1282,16 @@
       <c r="B24" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C24" s="4">
-        <v>305020305</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24">
+        <v>403110305</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>305020300</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1305,16 +1302,16 @@
       <c r="B25" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C25" s="4">
-        <v>305020306</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25">
+        <v>403110306</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>305020300</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1325,16 +1322,16 @@
       <c r="B26" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C26" s="4">
-        <v>305020307</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26">
+        <v>403110307</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>305020300</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1345,16 +1342,16 @@
       <c r="B27" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C27" s="4">
-        <v>305020308</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27">
+        <v>403110308</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>305020300</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1365,16 +1362,16 @@
       <c r="B28" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C28" s="4">
-        <v>305020309</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28">
+        <v>403110309</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>305020300</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1385,16 +1382,16 @@
       <c r="B29" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C29" s="4">
-        <v>305020310</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29">
+        <v>403110310</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>305020300</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1405,16 +1402,16 @@
       <c r="B30" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C30" s="4">
-        <v>305020311</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30">
+        <v>403110311</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>305020300</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1425,16 +1422,16 @@
       <c r="B31" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C31" s="4">
-        <v>305020312</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31">
+        <v>403110312</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>305020300</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1445,16 +1442,16 @@
       <c r="B32" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C32" s="4">
-        <v>305020313</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32">
+        <v>403110313</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>305020300</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1465,16 +1462,16 @@
       <c r="B33" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C33" s="4">
-        <v>305020314</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33">
+        <v>403110314</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>305020300</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1485,16 +1482,16 @@
       <c r="B34" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C34" s="4">
-        <v>305020315</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34">
+        <v>403110315</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>305020300</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1505,16 +1502,16 @@
       <c r="B35" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C35" s="4">
-        <v>305020401</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35">
+        <v>403110401</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>305020400</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1525,16 +1522,16 @@
       <c r="B36" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C36" s="4">
-        <v>305020501</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36">
+        <v>403110501</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>305020500</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1545,16 +1542,16 @@
       <c r="B37" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C37" s="4">
-        <v>305020502</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37">
+        <v>403110502</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>305020500</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1565,16 +1562,16 @@
       <c r="B38" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C38" s="4">
-        <v>305020503</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38">
+        <v>403110503</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>305020500</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1585,16 +1582,16 @@
       <c r="B39" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C39" s="4">
-        <v>305020504</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39">
+        <v>403110504</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>305020500</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1605,16 +1602,16 @@
       <c r="B40" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C40" s="4">
-        <v>305020505</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40">
+        <v>403110505</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>305020500</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1625,16 +1622,16 @@
       <c r="B41" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C41" s="4">
-        <v>305020601</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41">
+        <v>403110601</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>305020600</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1645,16 +1642,16 @@
       <c r="B42" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C42" s="4">
-        <v>305020602</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42">
+        <v>403110602</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>305020600</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1665,16 +1662,16 @@
       <c r="B43" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C43" s="4">
-        <v>305020603</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43">
+        <v>403110603</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>305020600</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1685,16 +1682,16 @@
       <c r="B44" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C44" s="4">
-        <v>305020604</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44">
+        <v>403110604</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>305020600</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1705,16 +1702,16 @@
       <c r="B45" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C45" s="4">
-        <v>305020605</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45">
+        <v>403110605</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>305020600</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1725,16 +1722,16 @@
       <c r="B46" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C46" s="4">
-        <v>305020606</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46">
+        <v>403110606</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>305020600</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1745,16 +1742,16 @@
       <c r="B47" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C47" s="4">
-        <v>305020701</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47">
+        <v>403110701</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>305020700</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1765,16 +1762,16 @@
       <c r="B48" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C48" s="4">
-        <v>305020702</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48">
+        <v>403110702</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>305020700</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1785,16 +1782,16 @@
       <c r="B49" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C49" s="4">
-        <v>305020801</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49">
+        <v>403110801</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>305020800</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1805,16 +1802,16 @@
       <c r="B50" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C50" s="4">
-        <v>305020802</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50">
+        <v>403110802</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>305020800</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1825,16 +1822,16 @@
       <c r="B51" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C51" s="4">
-        <v>305020803</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51">
+        <v>403110803</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>305020800</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1845,16 +1842,16 @@
       <c r="B52" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C52" s="4">
-        <v>305020804</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52">
+        <v>403110804</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>305020800</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1865,16 +1862,16 @@
       <c r="B53" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C53" s="4">
-        <v>305020805</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53">
+        <v>403110805</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>305020800</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1885,16 +1882,16 @@
       <c r="B54" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C54" s="4">
-        <v>305020806</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54">
+        <v>403110806</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>305020800</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1905,16 +1902,16 @@
       <c r="B55" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C55" s="4">
-        <v>305020901</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55">
+        <v>403110901</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>305020900</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1925,16 +1922,16 @@
       <c r="B56" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C56" s="4">
-        <v>305020902</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56">
+        <v>403110902</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>305020900</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1945,16 +1942,16 @@
       <c r="B57" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C57" s="4">
-        <v>305021001</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57">
+        <v>403111001</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>305021000</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1965,16 +1962,16 @@
       <c r="B58" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C58" s="4">
-        <v>305021002</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58">
+        <v>403111002</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>305021000</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1985,16 +1982,16 @@
       <c r="B59" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C59" s="4">
-        <v>305021003</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59">
+        <v>403111003</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>305021000</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2005,16 +2002,16 @@
       <c r="B60" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C60" s="4">
-        <v>305021004</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60">
+        <v>403111004</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>305021000</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2025,16 +2022,16 @@
       <c r="B61" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C61" s="4">
-        <v>305021101</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61">
+        <v>403111101</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>305021100</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2045,16 +2042,16 @@
       <c r="B62" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C62" s="4">
-        <v>305021201</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62">
+        <v>403111201</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>305021200</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2065,16 +2062,16 @@
       <c r="B63" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C63" s="4">
-        <v>305021301</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63">
+        <v>403111301</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>305021300</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2085,16 +2082,16 @@
       <c r="B64" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C64" s="4">
-        <v>305021302</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64">
+        <v>403111302</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>305021300</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2105,16 +2102,16 @@
       <c r="B65" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C65" s="4">
-        <v>305021303</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65">
+        <v>403111303</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>305021300</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2125,16 +2122,16 @@
       <c r="B66" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C66" s="4">
-        <v>305021304</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66">
+        <v>403111304</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>305021300</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2145,16 +2142,16 @@
       <c r="B67" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C67" s="4">
-        <v>305021305</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67">
+        <v>403111305</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>305021300</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2165,16 +2162,16 @@
       <c r="B68" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C68" s="4">
-        <v>305021306</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68">
+        <v>403111306</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>305021300</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2185,16 +2182,16 @@
       <c r="B69" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C69" s="4">
-        <v>305021401</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69">
+        <v>403111401</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>305021400</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2205,16 +2202,16 @@
       <c r="B70" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C70" s="4">
-        <v>305021402</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70">
+        <v>403111402</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>305021400</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2225,16 +2222,16 @@
       <c r="B71" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C71" s="4">
-        <v>305021403</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71">
+        <v>403111403</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>305021400</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2245,16 +2242,16 @@
       <c r="B72" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C72" s="4">
-        <v>305021404</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72">
+        <v>403111404</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>305021400</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2265,16 +2262,16 @@
       <c r="B73" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C73" s="4">
-        <v>305021405</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C73">
+        <v>403111405</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>305021400</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2285,16 +2282,16 @@
       <c r="B74" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C74" s="4">
-        <v>305021406</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74">
+        <v>403111406</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>305021400</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2305,16 +2302,16 @@
       <c r="B75" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C75" s="4">
-        <v>305021407</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75">
+        <v>403111407</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>305021400</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2325,16 +2322,16 @@
       <c r="B76" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C76" s="4">
-        <v>305021501</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76">
+        <v>403111501</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>305021500</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2345,16 +2342,16 @@
       <c r="B77" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C77" s="4">
-        <v>305021502</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77">
+        <v>403111502</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>305021500</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2365,16 +2362,16 @@
       <c r="B78" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C78" s="4">
-        <v>305021503</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78">
+        <v>403111503</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>305021500</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2385,16 +2382,16 @@
       <c r="B79" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C79" s="4">
-        <v>305021504</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79">
+        <v>403111504</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>305021500</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2405,16 +2402,16 @@
       <c r="B80" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C80" s="4">
-        <v>305021505</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80">
+        <v>403111505</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>305021500</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2425,16 +2422,16 @@
       <c r="B81" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C81" s="4">
-        <v>305021601</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81">
+        <v>403111601</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>305021600</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2445,16 +2442,16 @@
       <c r="B82" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C82" s="4">
-        <v>305021602</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="C82">
+        <v>403111602</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>305021600</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2465,16 +2462,16 @@
       <c r="B83" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C83" s="4">
-        <v>305021603</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83">
+        <v>403111603</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>305021600</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2485,16 +2482,16 @@
       <c r="B84" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C84" s="4">
-        <v>305021604</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84">
+        <v>403111604</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>305021600</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2505,16 +2502,16 @@
       <c r="B85" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C85" s="4">
-        <v>305021605</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85">
+        <v>403111605</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>305021600</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2525,16 +2522,16 @@
       <c r="B86" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C86" s="4">
-        <v>305021606</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="C86">
+        <v>403111606</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>305021600</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2545,16 +2542,16 @@
       <c r="B87" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C87" s="4">
-        <v>305021607</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87">
+        <v>403111607</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>305021600</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2565,16 +2562,16 @@
       <c r="B88" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C88" s="4">
-        <v>305021701</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="C88">
+        <v>403111701</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>305021700</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2585,16 +2582,16 @@
       <c r="B89" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C89" s="4">
-        <v>305021702</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89">
+        <v>403111702</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>305021700</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2605,16 +2602,16 @@
       <c r="B90" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C90" s="4">
-        <v>305021703</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="C90">
+        <v>403111703</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>305021700</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2625,16 +2622,16 @@
       <c r="B91" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C91" s="4">
-        <v>305021704</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C91">
+        <v>403111704</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>305021700</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2645,16 +2642,16 @@
       <c r="B92" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C92" s="4">
-        <v>305021705</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="C92">
+        <v>403111705</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>305021700</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2665,16 +2662,16 @@
       <c r="B93" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C93" s="4">
-        <v>305021706</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93">
+        <v>403111706</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>305021700</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2685,16 +2682,16 @@
       <c r="B94" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C94" s="4">
-        <v>305021707</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="C94">
+        <v>403111707</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>305021700</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2705,16 +2702,16 @@
       <c r="B95" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C95" s="4">
-        <v>305021801</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95">
+        <v>403111801</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>305021800</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2725,16 +2722,16 @@
       <c r="B96" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C96" s="4">
-        <v>305021901</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C96">
+        <v>403111901</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>305021900</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2745,16 +2742,16 @@
       <c r="B97" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C97" s="4">
-        <v>305021902</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="C97">
+        <v>403111902</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>305021900</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2765,16 +2762,16 @@
       <c r="B98" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C98" s="4">
-        <v>305021903</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C98">
+        <v>403111903</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>305021900</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2785,16 +2782,16 @@
       <c r="B99" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C99" s="4">
-        <v>305021904</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="C99">
+        <v>403111904</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>305021900</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2805,16 +2802,16 @@
       <c r="B100" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C100" s="4">
-        <v>305021905</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="C100">
+        <v>403111905</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>305021900</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2825,16 +2822,16 @@
       <c r="B101" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C101" s="4">
-        <v>305021906</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="C101">
+        <v>403111906</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>305021900</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2845,16 +2842,16 @@
       <c r="B102" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C102" s="4">
-        <v>305021907</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="C102">
+        <v>403111907</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>305021900</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2865,16 +2862,16 @@
       <c r="B103" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C103" s="4">
-        <v>305021908</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="C103">
+        <v>403111908</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>305021900</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2885,16 +2882,16 @@
       <c r="B104" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C104" s="4">
-        <v>305021909</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104">
+        <v>403111909</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>305021900</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2905,16 +2902,16 @@
       <c r="B105" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C105" s="4">
-        <v>305021910</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="C105">
+        <v>403111910</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>305021900</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2925,16 +2922,16 @@
       <c r="B106" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C106" s="4">
-        <v>305021911</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="C106">
+        <v>403111911</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>305021900</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2945,16 +2942,16 @@
       <c r="B107" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C107" s="4">
-        <v>305022001</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="C107">
+        <v>403112001</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>305022000</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2965,16 +2962,16 @@
       <c r="B108" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C108" s="4">
-        <v>305022101</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C108">
+        <v>403112101</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>305022100</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2985,16 +2982,16 @@
       <c r="B109" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C109" s="4">
-        <v>305022201</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C109">
+        <v>403112201</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>305022200</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3005,16 +3002,16 @@
       <c r="B110" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C110" s="4">
-        <v>305022202</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="C110">
+        <v>403112202</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>305022200</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3025,16 +3022,16 @@
       <c r="B111" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C111" s="4">
-        <v>305022203</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111">
+        <v>403112203</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>305022200</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3045,16 +3042,16 @@
       <c r="B112" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C112" s="4">
-        <v>305022204</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="C112">
+        <v>403112204</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>305022200</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3065,16 +3062,16 @@
       <c r="B113" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C113" s="4">
-        <v>305022205</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="C113">
+        <v>403112205</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>305022200</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3085,16 +3082,16 @@
       <c r="B114" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C114" s="4">
-        <v>305022206</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="C114">
+        <v>403112206</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>305022200</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3105,16 +3102,16 @@
       <c r="B115" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C115" s="4">
-        <v>305022207</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="C115">
+        <v>403112207</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>305022200</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3125,16 +3122,16 @@
       <c r="B116" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C116" s="4">
-        <v>305022208</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="C116">
+        <v>403112208</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>305022200</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3145,16 +3142,16 @@
       <c r="B117" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C117" s="4">
-        <v>305022209</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C117">
+        <v>403112209</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>305022200</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3165,16 +3162,16 @@
       <c r="B118" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C118" s="4">
-        <v>305022210</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="C118">
+        <v>403112210</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>305022200</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3185,16 +3182,16 @@
       <c r="B119" s="3">
         <v>2060000000</v>
       </c>
-      <c r="C119" s="4">
-        <v>305022211</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="C119">
+        <v>403112211</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>305022200</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>132</v>
       </c>
     </row>
